--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,7 +44,34 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:33 AM</t>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 17 July, 2025 9:13 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +281,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +293,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +701,103 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
+        <v>13</v>
+      </c>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
-        <v>12</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
-        <v>13</v>
-      </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="P9" s="13">
+        <v>310</v>
+      </c>
+      <c r="Q9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1">
+      <c t="s" r="A10" s="14">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c t="s" r="G10" s="15">
+        <v>21</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c t="s" r="K10" s="17">
+        <v>22</v>
+      </c>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="22">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +811,15 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="K10:Q10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -71,7 +71,7 @@
     <t>122.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 9:13 AM</t>
+    <t>Thursday, 17 July, 2025 9:24 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -62,6 +62,39 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -71,7 +104,19 @@
     <t>122.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 9:24 AM</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 17 July, 2025 10:00 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -766,38 +811,170 @@
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
-      <c r="P9" s="13">
-        <v>310</v>
-      </c>
-      <c r="Q9" s="13"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c t="s" r="A10" s="14">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
         <v>20</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c t="s" r="G10" s="15">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
         <v>21</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16"/>
-      <c t="s" r="K10" s="17">
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
         <v>22</v>
       </c>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>21</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>26</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>30</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>31</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>32</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>33</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>34</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>475.81999999999999</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>35</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>36</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>37</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -816,10 +993,30 @@
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
   </si>
   <si>
@@ -116,7 +131,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 10:00 AM</t>
+    <t>Thursday, 17 July, 2025 10:05 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -790,7 +805,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -800,14 +815,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -816,14 +831,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -833,14 +848,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -856,7 +871,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -866,14 +881,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -882,14 +897,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -899,14 +914,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -915,7 +930,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -928,53 +943,86 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>475.81999999999999</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
-        <v>35</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
         <v>36</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
         <v>37</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>38</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>39</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>502.81999999999999</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>40</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>41</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1013,10 +1061,15 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -62,15 +62,24 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
     <t>1:11</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>27.0000</t>
   </si>
   <si>
@@ -86,6 +95,15 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -98,9 +116,6 @@
     <t>23.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -110,6 +125,27 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -131,7 +167,7 @@
     <t>2.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 10:05 AM</t>
+    <t>Thursday, 17 July, 2025 10:07 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -805,7 +841,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -815,14 +851,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -831,14 +867,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -848,14 +884,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -871,7 +907,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -881,14 +917,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -897,14 +933,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -914,14 +950,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -930,14 +966,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -947,14 +983,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -963,66 +999,198 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>39</v>
       </c>
-      <c t="s" r="Q13" s="12">
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>13</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>40</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>43</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>26</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>45</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>13</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>46</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>502.81999999999999</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
-        <v>40</v>
-      </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
-        <v>41</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
-        <v>42</v>
-      </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>49</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>644.38999999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>52</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>53</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>54</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1066,10 +1234,30 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
   </si>
   <si>
@@ -95,6 +107,27 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -164,10 +197,25 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 17 July, 2025 10:07 AM</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 17 July, 2025 11:21 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -907,7 +955,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -917,11 +965,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -933,14 +981,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -950,14 +998,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -966,14 +1014,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -983,11 +1031,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>20</v>
@@ -999,14 +1047,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1016,14 +1064,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1032,14 +1080,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1082,11 +1130,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>20</v>
@@ -1098,14 +1146,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1115,14 +1163,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1131,66 +1179,198 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>54</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>13</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
+        <v>30</v>
+      </c>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>12</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>13</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>57</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>644.38999999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>52</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
-        <v>53</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
-        <v>54</v>
-      </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>59</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>60</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>61</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>62</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>65</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>60</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>66</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>755.38999999999999</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>68</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>69</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>70</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1254,10 +1434,30 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,22 +44,40 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
     <t>188.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
   </si>
   <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
@@ -122,12 +140,6 @@
     <t>LICID LOTION 30 ML</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
@@ -179,6 +191,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -215,7 +236,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:21 AM</t>
+    <t>Thursday, 17 July, 2025 11:31 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -906,7 +927,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -915,14 +936,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -932,14 +953,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -948,14 +969,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -965,14 +986,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -981,14 +1002,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -998,14 +1019,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1014,14 +1035,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1031,14 +1052,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1047,7 +1068,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1064,11 +1085,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1080,14 +1101,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1104,7 +1125,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1120,7 +1141,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1130,14 +1151,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1146,14 +1167,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1163,14 +1184,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1179,14 +1200,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1196,14 +1217,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1212,14 +1233,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1229,14 +1250,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1245,14 +1266,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1262,14 +1283,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1278,31 +1299,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1311,66 +1332,165 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>755.38999999999999</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>63</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>12</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>13</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>64</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>66</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>12</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>67</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
         <v>68</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
         <v>69</v>
       </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
+      <c t="s" r="Q23" s="12">
         <v>70</v>
       </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>71</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>72</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>67</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>73</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="P25" s="13">
+        <v>1028.3900000000001</v>
+      </c>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" customHeight="1">
+      <c t="s" r="A26" s="14">
+        <v>75</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c t="s" r="G26" s="15">
+        <v>76</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c t="s" r="K26" s="17">
+        <v>77</v>
+      </c>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="102">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1454,10 +1574,25 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:Q26"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -80,6 +80,21 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -89,9 +104,6 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -185,9 +197,6 @@
     <t>SUGARLO 50MG 30 TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>40.5900</t>
   </si>
   <si>
@@ -209,12 +218,24 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
@@ -236,7 +257,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:31 AM</t>
+    <t>Thursday, 17 July, 2025 11:35 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -976,7 +997,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -986,14 +1007,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1002,14 +1023,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1019,14 +1040,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1052,14 +1073,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1075,7 +1096,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1085,11 +1106,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1101,14 +1122,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1125,7 +1146,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1141,7 +1162,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1151,14 +1172,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1167,14 +1188,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1184,14 +1205,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1200,14 +1221,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1224,7 +1245,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1240,7 +1261,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1250,14 +1271,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1266,14 +1287,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1290,7 +1311,7 @@
         <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1316,14 +1337,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1332,14 +1353,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1349,14 +1370,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1372,7 +1393,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1411,18 +1432,18 @@
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1431,66 +1452,132 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>74</v>
       </c>
-      <c t="s" r="Q24" s="12">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>12</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>70</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>75</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>78</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>79</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>70</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>80</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="25" ht="24.75" customHeight="1">
-      <c r="P25" s="13">
-        <v>1028.3900000000001</v>
-      </c>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c t="s" r="A26" s="14">
-        <v>75</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c t="s" r="G26" s="15">
-        <v>76</v>
-      </c>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c t="s" r="K26" s="17">
-        <v>77</v>
-      </c>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1063.22</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>82</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>83</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>84</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="102">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1589,10 +1676,20 @@
     <mergeCell ref="H24:K24"/>
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:Q26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -257,7 +257,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:35 AM</t>
+    <t>Thursday, 17 July, 2025 11:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -161,6 +161,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -218,12 +230,21 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t>جل صبار انوفا</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>حبايه</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>3.00</t>
   </si>
   <si>
@@ -233,6 +254,21 @@
     <t>6:0</t>
   </si>
   <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>زيت دابر املا 90 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -242,7 +278,22 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>2:0</t>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -257,7 +308,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:41 AM</t>
+    <t>Thursday, 17 July, 2025 11:52 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1278,7 +1329,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1294,7 +1345,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1304,11 +1355,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>27</v>
@@ -1320,14 +1371,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1360,7 +1411,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1370,11 +1421,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>27</v>
@@ -1386,14 +1437,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1403,14 +1454,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1419,14 +1470,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1436,11 +1487,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1452,7 +1503,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1465,7 +1516,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1476,7 +1527,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1485,20 +1536,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1509,7 +1560,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1518,66 +1569,264 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>81</v>
       </c>
-      <c t="s" r="Q26" s="12">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>82</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>74</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>14</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1063.22</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>82</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>83</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>16</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>74</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
         <v>84</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>86</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>12</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>74</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>87</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>89</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>16</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>74</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>90</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>92</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>36</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>74</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>93</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
+        <v>95</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>96</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>74</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>97</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1239.22</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>99</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>100</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>101</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1686,10 +1935,40 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -308,7 +308,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:52 AM</t>
+    <t>Thursday, 17 July, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -230,18 +230,24 @@
     <t>122.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>جل صبار انوفا</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t>حبايه</t>
   </si>
   <si>
@@ -278,6 +284,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -308,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:54 AM</t>
+    <t>Thursday, 17 July, 2025 12:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1543,21 +1558,21 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1569,31 +1584,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1602,31 +1617,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1642,21 +1657,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1668,31 +1683,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1701,31 +1716,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1734,28 +1749,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1767,66 +1782,132 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1239.22</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>97</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>36</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>75</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>98</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>100</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>101</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>75</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>102</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1349.22</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>104</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>105</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>106</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1965,10 +2046,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -323,7 +323,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:15 PM</t>
+    <t>Thursday, 17 July, 2025 12:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -221,6 +221,12 @@
     <t>89.0000</t>
   </si>
   <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -323,7 +329,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:16 PM</t>
+    <t>Thursday, 17 July, 2025 12:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1525,7 +1531,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1535,11 +1541,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1551,28 +1557,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1584,28 +1590,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1617,31 +1623,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1650,31 +1656,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1690,21 +1696,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1716,31 +1722,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1749,7 +1755,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1762,18 +1768,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1782,28 +1788,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1815,28 +1821,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1848,66 +1854,99 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1349.22</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
+        <v>102</v>
+      </c>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>103</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>77</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>104</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>105</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1380.22</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
         <v>106</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>107</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>108</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2056,10 +2095,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
@@ -92,9 +107,6 @@
     <t>16.8300</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -104,6 +116,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -116,6 +140,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -164,69 +197,69 @@
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>31.00</t>
   </si>
   <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO 50MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -329,7 +362,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:18 PM</t>
+    <t>Thursday, 17 July, 2025 12:19 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1003,7 +1036,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1013,14 +1046,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1029,7 +1062,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -1046,11 +1079,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1062,14 +1095,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1079,14 +1112,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1102,7 +1135,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1112,14 +1145,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1128,14 +1161,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1145,14 +1178,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1185,7 +1218,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1201,7 +1234,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1211,14 +1244,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1227,14 +1260,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1251,7 +1284,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1267,7 +1300,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1277,11 +1310,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1293,14 +1326,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1310,14 +1343,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1326,14 +1359,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1343,14 +1376,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1359,14 +1392,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1376,14 +1409,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1399,7 +1432,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1416,7 +1449,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1432,7 +1465,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1442,14 +1475,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1458,14 +1491,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1475,14 +1508,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1491,14 +1524,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1508,14 +1541,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1524,14 +1557,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1541,14 +1574,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1557,14 +1590,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1574,14 +1607,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1590,20 +1623,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1630,21 +1663,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1656,7 +1689,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1669,18 +1702,18 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1689,28 +1722,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1722,28 +1755,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1755,7 +1788,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1768,18 +1801,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>51</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1788,28 +1821,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1821,7 +1854,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1834,15 +1867,15 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1854,31 +1887,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1887,66 +1920,165 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1380.22</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
-        <v>106</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>107</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>16</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>88</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
         <v>108</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>110</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>47</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>88</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>111</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>113</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>114</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>88</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>115</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="P39" s="13">
+        <v>1487.56</v>
+      </c>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" customHeight="1">
+      <c t="s" r="A40" s="14">
+        <v>117</v>
+      </c>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c t="s" r="G40" s="15">
+        <v>118</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c t="s" r="K40" s="17">
+        <v>119</v>
+      </c>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="172">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2100,10 +2232,25 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="K40:Q40"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -362,7 +362,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:19 PM</t>
+    <t>Thursday, 17 July, 2025 12:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -362,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:29 PM</t>
+    <t>Thursday, 17 July, 2025 12:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1284,7 +1293,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1300,7 +1309,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1310,14 +1319,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1326,14 +1335,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1366,7 +1375,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1376,14 +1385,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1392,14 +1401,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1409,14 +1418,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1425,14 +1434,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1442,14 +1451,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1482,7 +1491,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1498,7 +1507,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1508,14 +1517,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1524,14 +1533,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1564,7 +1573,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1574,11 +1583,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1607,11 +1616,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1623,14 +1632,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1663,7 +1672,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1673,7 +1682,7 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -1696,7 +1705,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1706,7 +1715,7 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
@@ -1729,21 +1738,21 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1755,28 +1764,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1788,31 +1797,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1821,31 +1830,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1854,28 +1863,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1894,13 +1903,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1911,7 +1920,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1944,7 +1953,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1960,13 +1969,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -1993,13 +2002,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2026,59 +2035,92 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>116</v>
       </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" ht="25.5" customHeight="1">
-      <c r="P39" s="13">
-        <v>1487.56</v>
-      </c>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" ht="16.5" customHeight="1">
-      <c t="s" r="A40" s="14">
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
         <v>117</v>
       </c>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c t="s" r="G40" s="15">
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>91</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
         <v>118</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="16"/>
-      <c t="s" r="K40" s="17">
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
         <v>119</v>
       </c>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1587.56</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>120</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>121</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>122</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="172">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2247,10 +2289,15 @@
     <mergeCell ref="H38:K38"/>
     <mergeCell ref="L38:M38"/>
     <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -371,7 +371,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:30 PM</t>
+    <t>Thursday, 17 July, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -95,6 +95,15 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
@@ -203,12 +212,18 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
-    <t>31.00</t>
-  </si>
-  <si>
     <t>62.0000</t>
   </si>
   <si>
@@ -266,9 +281,6 @@
     <t>4:0</t>
   </si>
   <si>
-    <t>31.0000</t>
-  </si>
-  <si>
     <t>URSOFALK 250MG 20 CAPS.</t>
   </si>
   <si>
@@ -371,7 +383,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:34 PM</t>
+    <t>Thursday, 17 July, 2025 12:36 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1144,7 +1156,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1154,14 +1166,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1170,14 +1182,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1210,7 +1222,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1220,11 +1232,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1236,14 +1248,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1253,14 +1265,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1286,14 +1298,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>45</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1326,7 +1338,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1342,7 +1354,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1352,14 +1364,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1368,14 +1380,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1408,7 +1420,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1418,14 +1430,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1434,14 +1446,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1451,14 +1463,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1467,14 +1479,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1484,14 +1496,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1524,7 +1536,7 @@
         <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1540,7 +1552,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1550,14 +1562,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1566,14 +1578,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1583,14 +1595,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1599,14 +1611,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1616,11 +1628,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1632,14 +1644,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1649,11 +1661,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1665,14 +1677,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1689,7 +1701,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1705,7 +1717,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1715,14 +1727,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1731,14 +1743,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1748,11 +1760,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1764,28 +1776,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1797,28 +1809,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1830,20 +1842,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1854,7 +1866,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1863,28 +1875,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1896,31 +1908,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1929,31 +1941,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1962,28 +1974,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -1995,31 +2007,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2028,28 +2040,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2061,66 +2073,132 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>117</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>53</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>95</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>118</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>119</v>
       </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1587.56</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>120</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
         <v>121</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>95</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>122</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>1675.56</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
+        <v>124</v>
+      </c>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>125</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>126</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2294,10 +2372,20 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -383,7 +383,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:36 PM</t>
+    <t>Thursday, 17 July, 2025 12:54 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
     <t>40.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -347,12 +356,6 @@
     <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -383,7 +386,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:54 PM</t>
+    <t>Thursday, 17 July, 2025 12:55 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1041,7 +1044,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1050,14 +1053,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1067,14 +1070,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1083,14 +1086,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1100,14 +1103,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1123,7 +1126,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1140,7 +1143,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1156,7 +1159,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1173,7 +1176,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1189,7 +1192,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1199,14 +1202,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1215,14 +1218,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1239,7 +1242,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1255,7 +1258,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1265,14 +1268,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1281,14 +1284,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1298,14 +1301,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1314,14 +1317,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1331,14 +1334,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1354,7 +1357,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1371,7 +1374,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1387,7 +1390,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1397,14 +1400,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1413,14 +1416,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1437,7 +1440,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1453,7 +1456,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1463,14 +1466,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1479,14 +1482,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1496,14 +1499,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1512,14 +1515,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1529,14 +1532,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1552,7 +1555,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1569,7 +1572,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1585,7 +1588,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1595,14 +1598,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1611,14 +1614,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1628,11 +1631,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1644,14 +1647,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1668,7 +1671,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1684,7 +1687,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1694,14 +1697,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1710,14 +1713,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1727,14 +1730,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1743,14 +1746,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1760,14 +1763,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1783,7 +1786,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1793,14 +1796,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1809,14 +1812,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1826,14 +1829,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1849,24 +1852,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1875,31 +1878,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1908,31 +1911,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>102</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1941,31 +1944,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>17</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1974,31 +1977,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2020,7 +2023,7 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2031,7 +2034,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2047,13 +2050,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2064,7 +2067,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2080,24 +2083,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2106,31 +2109,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2139,66 +2142,99 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>121</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>122</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>98</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>123</v>
       </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>1675.56</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>124</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c t="s" r="Q42" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1755.56</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
         <v>125</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
         <v>126</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>127</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2382,10 +2418,15 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,13 +44,346 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>BETADINE ANTISEPTIC SOLN. 10% 120 ML</t>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>جل صبار انوفا</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>زيت دابر املا 90 مل</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
   </si>
   <si>
     <t>80.00</t>
@@ -59,303 +392,6 @@
     <t>80.0000</t>
   </si>
   <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUGARLO 50MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>جل صبار انوفا</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>زيت دابر املا 90 مل</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
-  </si>
-  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -386,7 +422,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 12:55 PM</t>
+    <t>Thursday, 17 July, 2025 3:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1044,7 +1080,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1053,14 +1089,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1070,14 +1106,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1086,14 +1122,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1103,14 +1139,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1119,14 +1155,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1136,14 +1172,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1152,14 +1188,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1169,14 +1205,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1185,14 +1221,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1202,14 +1238,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1218,14 +1254,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1235,14 +1271,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1251,14 +1287,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1268,14 +1304,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1284,14 +1320,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1308,7 +1344,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1334,14 +1370,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1357,7 +1393,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1367,14 +1403,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>51</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1390,7 +1426,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1407,7 +1443,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1423,7 +1459,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1433,14 +1469,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1449,14 +1485,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1473,7 +1509,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1489,7 +1525,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1499,14 +1535,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1515,14 +1551,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1532,14 +1568,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1548,14 +1584,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1565,14 +1601,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1581,14 +1617,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1598,14 +1634,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1614,14 +1650,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1631,11 +1667,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1647,14 +1683,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1671,7 +1707,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1687,7 +1723,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1704,7 +1740,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1720,7 +1756,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1730,14 +1766,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1746,14 +1782,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1763,14 +1799,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1779,14 +1815,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1796,14 +1832,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1812,14 +1848,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1829,14 +1865,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1852,7 +1888,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1862,14 +1898,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1878,31 +1914,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1911,31 +1947,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1944,31 +1980,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>105</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1977,31 +2013,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>19</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2010,31 +2046,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2043,28 +2079,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2076,31 +2112,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2109,31 +2145,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2149,13 +2185,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2166,7 +2202,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2182,59 +2218,191 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>122</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
         <v>124</v>
       </c>
-      <c t="s" r="Q42" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1755.56</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>109</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
         <v>125</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
         <v>126</v>
       </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
         <v>127</v>
       </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>21</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>109</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>128</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>129</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>130</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>59</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>109</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>131</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>133</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>134</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>109</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>135</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2076.46</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>137</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>138</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>139</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2423,10 +2591,30 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -422,7 +422,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:12 PM</t>
+    <t>Thursday, 17 July, 2025 3:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,54 +44,75 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>54.00</t>
   </si>
   <si>
     <t>27.0000</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
   </si>
   <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -227,30 +248,33 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -380,7 +404,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
@@ -422,7 +446,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:13 PM</t>
+    <t>Thursday, 17 July, 2025 3:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1113,7 +1137,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1122,14 +1146,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1139,11 +1163,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>16</v>
@@ -1155,14 +1179,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1172,14 +1196,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1188,14 +1212,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1212,7 +1236,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1228,7 +1252,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1238,14 +1262,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1254,14 +1278,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1278,7 +1302,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1294,7 +1318,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1311,7 +1335,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1327,7 +1351,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1337,11 +1361,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1353,14 +1377,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1393,7 +1417,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1403,14 +1427,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1426,7 +1450,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1436,14 +1460,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1452,14 +1476,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1469,14 +1493,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1485,14 +1509,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1509,7 +1533,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1525,7 +1549,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1542,7 +1566,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1558,7 +1582,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1568,14 +1592,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1584,14 +1608,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1601,14 +1625,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1617,14 +1641,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1641,7 +1665,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1657,7 +1681,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1667,14 +1691,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1683,14 +1707,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1700,14 +1724,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1716,14 +1740,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1733,14 +1757,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1749,14 +1773,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1766,14 +1790,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1782,14 +1806,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1799,14 +1823,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1815,7 +1839,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1832,14 +1856,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1848,14 +1872,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1865,11 +1889,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1881,14 +1905,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1898,11 +1922,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1914,14 +1938,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1931,14 +1955,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1964,14 +1988,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1980,14 +2004,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1997,14 +2021,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2013,14 +2037,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2030,14 +2054,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2046,31 +2070,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2079,31 +2103,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2112,31 +2136,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>115</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2145,31 +2169,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2178,31 +2202,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2211,31 +2235,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2244,31 +2268,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2277,31 +2301,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2310,31 +2334,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2343,66 +2367,132 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2076.46</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>137</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>138</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>66</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>117</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
         <v>139</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
+        <v>141</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>142</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>117</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>143</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2159.96</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>145</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>146</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>147</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2611,10 +2701,20 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:18 PM</t>
+    <t>Thursday, 17 July, 2025 3:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -446,7 +446,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:21 PM</t>
+    <t>Thursday, 17 July, 2025 3:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -281,6 +281,12 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -446,7 +452,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:27 PM</t>
+    <t>Thursday, 17 July, 2025 3:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1846,7 +1852,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1856,14 +1862,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1879,7 +1885,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,14 +1895,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1905,7 +1911,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1922,7 +1928,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1945,7 +1951,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1955,11 +1961,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1971,14 +1977,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1988,7 +1994,7 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2011,7 +2017,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2021,14 +2027,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2037,14 +2043,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2054,11 +2060,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>12</v>
@@ -2077,7 +2083,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2087,11 +2093,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2103,14 +2109,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2120,14 +2126,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2136,31 +2142,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>117</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2169,28 +2175,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>12</v>
@@ -2202,31 +2208,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2235,31 +2241,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2275,21 +2281,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2301,31 +2307,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2334,7 +2340,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2347,18 +2353,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2367,28 +2373,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>12</v>
@@ -2400,28 +2406,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2433,66 +2439,99 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>142</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>143</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>144</v>
       </c>
-      <c t="s" r="Q48" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2159.96</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>119</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
         <v>145</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
         <v>146</v>
       </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2219.96</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
         <v>147</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>148</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>149</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2711,10 +2750,15 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -452,7 +452,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:28 PM</t>
+    <t>Thursday, 17 July, 2025 3:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1852,7 +1852,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -74,6 +74,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -452,7 +461,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:30 PM</t>
+    <t>Thursday, 17 July, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1192,7 +1201,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1202,14 +1211,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1218,14 +1227,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1235,14 +1244,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1251,14 +1260,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1268,14 +1277,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1284,14 +1293,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1324,7 +1333,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1357,7 +1366,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1367,14 +1376,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1383,14 +1392,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1423,7 +1432,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1456,7 +1465,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1466,11 +1475,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1482,14 +1491,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1499,14 +1508,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1522,7 +1531,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1532,14 +1541,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1572,7 +1581,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1588,7 +1597,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1598,14 +1607,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1614,14 +1623,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1654,7 +1663,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1687,7 +1696,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1720,7 +1729,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1730,14 +1739,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1746,14 +1755,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1763,14 +1772,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1779,14 +1788,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1796,14 +1805,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1819,7 +1828,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1862,11 +1871,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>12</v>
@@ -1878,7 +1887,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1895,14 +1904,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1928,14 +1937,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1961,11 +1970,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>19</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1977,14 +1986,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1994,11 +2003,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2027,11 +2036,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2083,7 +2092,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2093,11 +2102,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>12</v>
@@ -2109,14 +2118,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2126,11 +2135,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2149,7 +2158,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2159,14 +2168,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2175,31 +2184,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2208,28 +2217,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2241,31 +2250,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2281,24 +2290,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2307,28 +2316,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2347,13 +2356,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2364,7 +2373,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>109</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2380,13 +2389,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2397,7 +2406,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2413,13 +2422,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2446,13 +2455,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2479,59 +2488,92 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>144</v>
+        <v>69</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>146</v>
       </c>
-      <c t="s" r="Q49" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2219.96</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
         <v>147</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>122</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
         <v>148</v>
       </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
         <v>149</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2250.6500000000001</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>150</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>151</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>152</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2755,10 +2797,15 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -461,7 +461,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:34 PM</t>
+    <t>Thursday, 17 July, 2025 3:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>188.0000</t>
   </si>
   <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -335,6 +344,15 @@
     <t>40.5900</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
@@ -461,7 +479,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 3:35 PM</t>
+    <t>Thursday, 17 July, 2025 4:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1333,7 +1351,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1350,7 +1368,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1366,7 +1384,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1399,7 +1417,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1409,14 +1427,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1425,14 +1443,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1465,7 +1483,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1498,7 +1516,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1508,11 +1526,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1524,14 +1542,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1541,14 +1559,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1564,7 +1582,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1574,14 +1592,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>64</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1614,7 +1632,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1630,7 +1648,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1640,14 +1658,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1656,14 +1674,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1762,7 +1780,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1772,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>61</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1788,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1805,14 +1823,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1821,14 +1839,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1838,14 +1856,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1861,7 +1879,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1871,14 +1889,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1887,14 +1905,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1904,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1920,7 +1938,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1937,14 +1955,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1953,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1970,14 +1988,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>46</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2003,11 +2021,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2019,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2036,11 +2054,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2052,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2069,11 +2087,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2085,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2102,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2125,7 +2143,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2135,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2151,14 +2169,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2168,11 +2186,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>12</v>
@@ -2184,14 +2202,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2201,14 +2219,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2217,28 +2235,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>12</v>
@@ -2250,31 +2268,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2290,24 +2308,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>128</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2316,28 +2334,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2349,31 +2367,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2382,31 +2400,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>29</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>112</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2422,13 +2440,13 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
@@ -2455,13 +2473,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2472,7 +2490,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2488,13 +2506,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2521,59 +2539,125 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>149</v>
       </c>
-      <c t="s" r="Q50" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2250.6500000000001</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>72</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>128</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
         <v>150</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
         <v>151</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c t="s" r="Q51" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>152</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>153</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>128</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>154</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2370.6950000000002</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>156</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>157</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>158</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2802,10 +2886,20 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 4:29 PM</t>
+    <t>Thursday, 17 July, 2025 5:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -92,6 +92,15 @@
     <t>43.0000</t>
   </si>
   <si>
+    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -119,9 +128,6 @@
     <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>188.00</t>
   </si>
   <si>
@@ -263,6 +269,15 @@
     <t>49.9000</t>
   </si>
   <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -305,6 +320,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -320,6 +344,15 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PAN-D TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -425,19 +458,19 @@
     <t>زيت دابر املا 90 مل</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>6.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
@@ -455,7 +488,13 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -479,7 +518,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 5:16 PM</t>
+    <t>Thursday, 17 July, 2025 5:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1262,11 +1301,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>12</v>
@@ -1278,14 +1317,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1295,14 +1334,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1311,14 +1350,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1328,14 +1367,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1344,14 +1383,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1361,14 +1400,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1377,14 +1416,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1394,14 +1433,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1410,14 +1449,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1427,11 +1466,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1443,14 +1482,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1460,14 +1499,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1476,14 +1515,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1493,11 +1532,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1509,14 +1548,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1526,11 +1565,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1542,14 +1581,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,11 +1598,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1575,14 +1614,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,14 +1631,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1608,14 +1647,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,14 +1664,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1641,7 +1680,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1658,14 +1697,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1713,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1691,14 +1730,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1707,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1724,11 +1763,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1740,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,11 +1796,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1773,14 +1812,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1790,11 +1829,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1806,14 +1845,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1823,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1839,14 +1878,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1879,7 +1918,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1889,14 +1928,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1905,14 +1944,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,11 +1961,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>12</v>
@@ -1938,7 +1977,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1955,14 +1994,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1971,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2004,14 +2043,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,14 +2060,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2044,7 +2083,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,14 +2093,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2070,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2087,14 +2126,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2103,14 +2142,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,7 +2159,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -2143,7 +2182,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2160,7 +2199,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2176,7 +2215,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2225,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2202,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,14 +2258,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2235,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,14 +2291,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2275,7 +2314,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2285,11 +2324,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2301,28 +2340,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>12</v>
@@ -2334,28 +2373,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>129</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2367,31 +2406,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>134</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2400,31 +2439,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>29</v>
+        <v>135</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>30</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2440,21 +2479,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2466,31 +2505,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2506,13 +2545,13 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2520,10 +2559,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2539,21 +2578,21 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2565,28 +2604,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2598,66 +2637,264 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>152</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>28</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>139</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>144</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>154</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>28</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>139</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
         <v>155</v>
       </c>
-      <c t="s" r="Q52" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2370.6950000000002</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
         <v>156</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c t="s" r="Q54" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>157</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>12</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>139</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
         <v>158</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>159</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>129</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>139</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>160</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>162</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>74</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>139</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>163</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>165</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>166</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>139</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>167</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>168</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2636.8000000000002</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>169</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>170</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>171</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2896,10 +3133,40 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -104,7 +104,7 @@
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
-    <t>-1:0</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>40.00</t>
@@ -116,9 +116,6 @@
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -389,6 +386,9 @@
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>89.00</t>
   </si>
   <si>
@@ -413,9 +413,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>36.00</t>
   </si>
   <si>
@@ -518,7 +515,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 5:17 PM</t>
+    <t>Thursday, 17 July, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1357,7 +1354,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1367,11 +1364,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1383,7 +1380,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1400,11 +1397,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>12</v>
@@ -1416,7 +1413,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1433,11 +1430,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1449,7 +1446,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1466,11 +1463,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>12</v>
@@ -1482,7 +1479,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1499,11 +1496,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1515,14 +1512,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1532,11 +1529,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1548,7 +1545,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1565,11 +1562,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1581,7 +1578,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1598,11 +1595,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1614,14 +1611,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1631,11 +1628,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1647,14 +1644,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1664,14 +1661,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>20</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1680,7 +1677,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1697,11 +1694,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>12</v>
@@ -1713,7 +1710,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1730,11 +1727,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1746,14 +1743,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1763,11 +1760,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>12</v>
@@ -1779,7 +1776,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1796,11 +1793,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>12</v>
@@ -1812,7 +1809,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1829,11 +1826,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1845,7 +1842,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1862,11 +1859,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1878,7 +1875,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1895,11 +1892,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1911,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1944,7 +1941,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1977,7 +1974,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1994,11 +1991,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2010,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2027,11 +2024,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2043,7 +2040,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2060,11 +2057,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>12</v>
@@ -2076,7 +2073,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2093,11 +2090,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2109,7 +2106,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2126,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2142,7 +2139,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2159,11 +2156,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2175,7 +2172,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2192,11 +2189,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>12</v>
@@ -2208,7 +2205,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2229,7 +2226,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2241,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2258,11 +2255,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2274,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,11 +2288,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2307,14 +2304,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,11 +2321,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2340,14 +2337,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2390,11 +2387,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>12</v>
@@ -2446,7 +2443,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,11 +2453,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2472,28 +2469,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2505,28 +2502,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>12</v>
@@ -2538,7 +2535,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2551,18 +2548,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2571,20 +2568,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2604,7 +2601,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2617,15 +2614,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2637,7 +2634,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2650,18 +2647,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2670,7 +2667,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2683,18 +2680,18 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,7 +2700,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2716,15 +2713,15 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2736,7 +2733,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2749,15 +2746,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>12</v>
@@ -2769,7 +2766,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2782,15 +2779,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>12</v>
@@ -2802,28 +2799,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>12</v>
@@ -2835,28 +2832,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>12</v>
@@ -2870,7 +2867,7 @@
     </row>
     <row r="60" ht="16.5" customHeight="1">
       <c t="s" r="A60" s="14">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -2878,13 +2875,13 @@
       <c r="E60" s="14"/>
       <c r="F60" s="14"/>
       <c t="s" r="G60" s="15">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
       <c t="s" r="K60" s="17">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L60" s="17"/>
       <c r="M60" s="17"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -161,9 +173,6 @@
     <t>DEXAZONE 0.5MG 60 TAB</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -209,6 +218,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN LIQUID 120 ML</t>
   </si>
   <si>
@@ -326,6 +347,15 @@
     <t>64.0000</t>
   </si>
   <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -365,9 +395,6 @@
     <t>126.00</t>
   </si>
   <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>SUGARLO 50MG 30 TABS.</t>
   </si>
   <si>
@@ -386,9 +413,6 @@
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>89.00</t>
   </si>
   <si>
@@ -515,7 +539,10 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 5:39 PM</t>
+    <t>مناديل FINE</t>
+  </si>
+  <si>
+    <t>Thursday, 17 July, 2025 6:07 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1371,7 +1398,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1380,14 +1407,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1397,14 +1424,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1430,14 +1457,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1446,14 +1473,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1479,14 +1506,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1496,11 +1523,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>12</v>
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1536,7 +1563,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1552,7 +1579,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1585,7 +1612,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1618,7 +1645,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1628,11 +1655,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1644,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1661,14 +1688,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1684,7 +1711,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,14 +1721,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>20</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>68</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1717,7 +1744,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1727,11 +1754,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1743,14 +1770,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1783,7 +1810,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1800,7 +1827,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1816,7 +1843,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,11 +1853,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>12</v>
@@ -1842,7 +1869,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1859,11 +1886,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>12</v>
@@ -1875,14 +1902,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1892,14 +1919,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1932,7 +1959,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1948,7 +1975,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1958,14 +1985,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,14 +2001,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2018,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2034,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,11 +2051,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>12</v>
@@ -2057,14 +2084,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2073,14 +2100,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2090,11 +2117,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>12</v>
@@ -2106,7 +2133,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2123,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,14 +2166,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,14 +2183,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,14 +2199,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,14 +2216,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,14 +2232,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,14 +2249,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2238,14 +2265,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,11 +2282,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2271,14 +2298,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2288,14 +2315,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,7 +2331,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2321,11 +2348,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2337,14 +2364,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,14 +2381,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2377,7 +2404,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,14 +2414,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2410,7 +2437,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2427,7 +2454,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2443,7 +2470,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2460,7 +2487,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2482,15 +2509,15 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>12</v>
@@ -2502,20 +2529,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2535,31 +2562,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,28 +2595,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>32</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>12</v>
@@ -2601,28 +2628,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>12</v>
@@ -2634,7 +2661,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2647,18 +2674,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2667,31 +2694,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2700,28 +2727,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>12</v>
@@ -2740,13 +2767,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2754,10 +2781,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>12</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2766,31 +2793,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2806,13 +2833,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2839,59 +2866,191 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>166</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>137</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>146</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>167</v>
       </c>
-      <c t="s" r="Q58" s="12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2636.8000000000002</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>168</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c t="s" r="Q59" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>169</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>80</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>146</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
         <v>170</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>172</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>173</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>146</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>174</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>176</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>154</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>146</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>174</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>175</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="P63" s="13">
+        <v>2879.3800000000001</v>
+      </c>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" ht="16.5" customHeight="1">
+      <c t="s" r="A64" s="14">
+        <v>177</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c t="s" r="G64" s="15">
+        <v>178</v>
+      </c>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c t="s" r="K64" s="17">
+        <v>179</v>
+      </c>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="292">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3160,10 +3319,30 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="K64:Q64"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS 10MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>25.00</t>
   </si>
   <si>
@@ -62,6 +74,33 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
     <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
   </si>
   <si>
@@ -89,24 +128,39 @@
     <t>86.00</t>
   </si>
   <si>
-    <t>43.0000</t>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
   </si>
   <si>
     <t>CIPROFAR 750MG 10 F.C. TAB.</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>40.00</t>
   </si>
   <si>
@@ -179,6 +233,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DIBAVALLY PLUS 50/1000MG 28 TABS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
   </si>
   <si>
@@ -191,9 +254,6 @@
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>35.6400</t>
   </si>
   <si>
@@ -203,12 +263,27 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -251,276 +326,384 @@
     <t>GARAMYCIN 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PAN-D TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>جل صبار انوفا</t>
+  </si>
+  <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>زيت دابر املا 90 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سباركل شامبو وبلسم </t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>19.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>محلول رينجر</t>
+  </si>
+  <si>
+    <t>معجون اسنان فلورو بالكولا</t>
+  </si>
+  <si>
+    <t>معجون سيجنال 25 مل</t>
+  </si>
+  <si>
     <t>7:0</t>
   </si>
   <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
-  </si>
-  <si>
-    <t>49.90</t>
-  </si>
-  <si>
-    <t>49.9000</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PAN-D TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>SUGARLO 50MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>جل صبار انوفا</t>
-  </si>
-  <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>زيت دابر املا 90 مل</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>محلول رينجر</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>معجون سيجنال 25 مل</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -530,19 +713,10 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 6:07 PM</t>
+    <t>Thursday, 17 July, 2025 9:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1216,7 +1390,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1226,14 +1400,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1249,7 +1423,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1259,14 +1433,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1275,14 +1449,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1292,14 +1466,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1308,14 +1482,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1325,14 +1499,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1341,14 +1515,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1358,14 +1532,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1374,14 +1548,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1391,14 +1565,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1407,14 +1581,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1424,14 +1598,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,14 +1614,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1457,14 +1631,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1473,7 +1647,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1490,11 +1664,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1506,14 +1680,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1523,14 +1697,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1539,14 +1713,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1730,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,14 +1746,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1763,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,7 +1779,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1622,11 +1796,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1638,14 +1812,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1655,14 +1829,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1671,14 +1845,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,11 +1862,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1704,14 +1878,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1721,14 +1895,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1737,14 +1911,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1754,14 +1928,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1770,14 +1944,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,14 +1961,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1803,14 +1977,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1820,14 +1994,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1836,14 +2010,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,14 +2027,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1869,14 +2043,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1886,14 +2060,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1902,14 +2076,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,14 +2093,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1935,14 +2109,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,14 +2126,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1968,14 +2142,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1985,14 +2159,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,14 +2175,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2018,14 +2192,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2034,14 +2208,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,14 +2225,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2067,14 +2241,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,14 +2258,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2100,14 +2274,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2117,14 +2291,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2133,7 +2307,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2150,14 +2324,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2166,14 +2340,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2183,14 +2357,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,14 +2373,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,11 +2390,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2232,14 +2406,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,14 +2423,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2265,14 +2439,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2282,14 +2456,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2298,14 +2472,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,14 +2489,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2331,14 +2505,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2348,14 +2522,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,14 +2538,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2385,10 +2559,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2397,14 +2571,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2414,11 +2588,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2430,14 +2604,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2447,14 +2621,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2463,14 +2637,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2480,14 +2654,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2496,14 +2670,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2513,14 +2687,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>51</v>
+        <v>140</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,14 +2703,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2546,14 +2720,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2562,14 +2736,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2579,14 +2753,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>143</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,31 +2769,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,31 +2802,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>104</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2661,31 +2835,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>152</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,31 +2868,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2727,31 +2901,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,31 +2934,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>154</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2793,31 +2967,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2826,31 +3000,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2859,31 +3033,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2892,31 +3066,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2925,31 +3099,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -2958,31 +3132,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>173</v>
+        <v>95</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2991,66 +3165,858 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q62" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>182</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" ht="24.75" customHeight="1">
-      <c r="P63" s="13">
-        <v>2879.3800000000001</v>
-      </c>
-      <c r="Q63" s="13"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1">
-      <c t="s" r="A64" s="14">
-        <v>177</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c t="s" r="G64" s="15">
-        <v>178</v>
-      </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="16"/>
-      <c t="s" r="K64" s="17">
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>13</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>183</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>185</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>186</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>13</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>69</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>187</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>12</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>13</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>188</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>189</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>95</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>13</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>191</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>193</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>194</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>13</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>72</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>196</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>22</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
         <v>179</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>140</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>197</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>198</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>179</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>199</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>201</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>202</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>179</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>203</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>204</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>22</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>179</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>199</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>12</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>179</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>206</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>192</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>207</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>208</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>179</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>50</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>209</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>16</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>179</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>163</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>210</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>22</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>179</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>57</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>212</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>12</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>179</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>213</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>215</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>12</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>179</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>206</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>217</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>218</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>179</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>203</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>220</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>12</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>179</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>221</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>222</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>223</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>16</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>179</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>224</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>226</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>12</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>179</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>203</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>227</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>186</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>179</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>157</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>228</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>16</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>179</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>199</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>200</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>229</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>230</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>179</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>231</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>233</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>218</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>179</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>140</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>234</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>186</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>179</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>140</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="P87" s="13">
+        <v>4373.8850000000002</v>
+      </c>
+      <c r="Q87" s="13"/>
+    </row>
+    <row r="88" ht="16.5" customHeight="1">
+      <c t="s" r="A88" s="14">
+        <v>235</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c t="s" r="G88" s="15">
+        <v>236</v>
+      </c>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c t="s" r="K88" s="17">
+        <v>237</v>
+      </c>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="292">
+  <mergeCells count="412">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3339,10 +4305,130 @@
     <mergeCell ref="H62:K62"/>
     <mergeCell ref="L62:M62"/>
     <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="K88:Q88"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -89,541 +89,652 @@
     <t>B-COM I.M./I.V. 6 AMP</t>
   </si>
   <si>
+    <t>3:6</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-16.3200</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>BEBELAC 1 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
+    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>CAPOZIDE 50/25MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
+  </si>
+  <si>
+    <t>86.00</t>
+  </si>
+  <si>
+    <t>86.0000</t>
+  </si>
+  <si>
+    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>129.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>CETAFEN 30 TABS</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>22.7700</t>
+  </si>
+  <si>
+    <t>CETAL 100MG/ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>COGINTOL 20 TAB.</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>COLOVATIL 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
+  </si>
+  <si>
+    <t>188.00</t>
+  </si>
+  <si>
+    <t>188.0000</t>
+  </si>
+  <si>
+    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>4:1</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>-24.0000</t>
-  </si>
-  <si>
-    <t>0:-3</t>
-  </si>
-  <si>
-    <t>BI-PROFENID 150MG 20 SCORED TABS.</t>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DIBAVALLY PLUS 50/1000MG 28 TABS.</t>
+  </si>
+  <si>
+    <t>140.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>ESMORAP 40MG 14 CAPS</t>
+  </si>
+  <si>
+    <t>138.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>44.2800</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN LIQUID 120 ML</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>71.0000</t>
+  </si>
+  <si>
+    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>240.0000</t>
+  </si>
+  <si>
+    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
+  </si>
+  <si>
+    <t>49.90</t>
+  </si>
+  <si>
+    <t>49.9000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>173.0000</t>
+  </si>
+  <si>
+    <t>ICANDRA 50 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>118.50</t>
+  </si>
+  <si>
+    <t>39.1050</t>
+  </si>
+  <si>
+    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>147.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>120.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>LICID LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>MAVILOR 2.5 MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>MELANTHENOL GEL 40 GM</t>
+  </si>
+  <si>
+    <t>MIDODRINE 2.5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>MUCO S.R 75MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>64.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>NEUROTON 6 AMP</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
+    <t>21.7800</t>
+  </si>
+  <si>
+    <t>NEVILOB 5 MG 21 TAB</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>152.00</t>
+  </si>
+  <si>
+    <t>76.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>CAPOZIDE 50/25MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>93.00</t>
-  </si>
-  <si>
-    <t>30.6900</t>
-  </si>
-  <si>
-    <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
-  </si>
-  <si>
-    <t>86.00</t>
-  </si>
-  <si>
-    <t>86.0000</t>
-  </si>
-  <si>
-    <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>129.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>CETAFEN 30 TABS</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>22.7700</t>
-  </si>
-  <si>
-    <t>CIPROFAR 750MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>COGINTOL 20 TAB.</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>COLOVATIL 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>CONTROLOC 40MG 14 GASTRORESISTANT TAB</t>
-  </si>
-  <si>
-    <t>188.00</t>
-  </si>
-  <si>
-    <t>188.0000</t>
-  </si>
-  <si>
-    <t>CO-TAREG 160/12.5MG 14 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DESA 2.5MG/5ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>31.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DIBAVALLY PLUS 50/1000MG 28 TABS.</t>
-  </si>
-  <si>
-    <t>140.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>66.0000</t>
-  </si>
-  <si>
-    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>ECTOMETHRIN 5% LOTION 50 ML</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>ESMORAP 40MG 14 CAPS</t>
-  </si>
-  <si>
-    <t>138.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>1:11</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN LIQUID 120 ML</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>GARAMYCIN 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>HELI-CURE 14 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>240.00</t>
-  </si>
-  <si>
-    <t>240.0000</t>
-  </si>
-  <si>
-    <t>HEXITOL 1.25MG/ML MOUTH WASH 100 ML</t>
-  </si>
-  <si>
-    <t>49.90</t>
-  </si>
-  <si>
-    <t>49.9000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>ICANDRA 50 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>118.50</t>
-  </si>
-  <si>
-    <t>39.1050</t>
-  </si>
-  <si>
-    <t>ICANDRA PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>147.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>120.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>LICID LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>MAVILOR 2.5 MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>MELANTHENOL GEL 40 GM</t>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>PAN-D TOPICAL LOTION 120ML</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>PAROFEN 30 OBLONG TAB.</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>SUGARLO 50MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
+    <t>TEGRETOL 200MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
+    <t>TEMPO COOL</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>34.19</t>
+  </si>
+  <si>
+    <t>17.0950</t>
+  </si>
+  <si>
+    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
+    <t>UNIFUNGI 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>53.00</t>
+  </si>
+  <si>
+    <t>53.0000</t>
+  </si>
+  <si>
+    <t>URINEX 24 CAPS</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>URIVIN-N 10 EFF. SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>URSOFALK 250MG 20 CAPS.</t>
+  </si>
+  <si>
+    <t>122.00</t>
+  </si>
+  <si>
+    <t>122.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VIRECTA 100 MG 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>29.0400</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>33.6600</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8534:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>اسيتون ايفا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">برفان القصاص </t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>39:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>جل صبار انوفا</t>
   </si>
   <si>
     <t>60.0000</t>
   </si>
   <si>
-    <t>MIDODRINE 2.5MG 20 TAB</t>
-  </si>
-  <si>
-    <t>MUCO S.R 75MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>64.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>NEVILOB 5 MG 21 TAB</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>152.00</t>
-  </si>
-  <si>
-    <t>76.0000</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>62.0000</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PAN-D TOPICAL LOTION 120ML</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>SUGARLO 50MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>136.50</t>
-  </si>
-  <si>
-    <t>45.0450</t>
-  </si>
-  <si>
-    <t>TEGRETOL 200MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>89.00</t>
-  </si>
-  <si>
-    <t>89.0000</t>
-  </si>
-  <si>
-    <t>TEMPO COOL</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>34.19</t>
-  </si>
-  <si>
-    <t>17.0950</t>
-  </si>
-  <si>
-    <t>TIRATAM XR 750MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>148.0000</t>
-  </si>
-  <si>
-    <t>URIVIN-N 10 EFF. SACHETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>URSOFALK 250MG 20 CAPS.</t>
-  </si>
-  <si>
-    <t>122.00</t>
-  </si>
-  <si>
-    <t>122.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>33.6600</t>
-  </si>
-  <si>
-    <t>اسيتون ايفا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">برفان القصاص </t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>39:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>جل صبار انوفا</t>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>98:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
   </si>
   <si>
     <t>حبايه</t>
@@ -632,28 +743,25 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>زيت دابر املا 90 مل</t>
   </si>
   <si>
     <t xml:space="preserve">سباركل شامبو وبلسم </t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>19.0000</t>
+    <t>12:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -680,6 +788,9 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
     <t>قطن 50جم</t>
   </si>
   <si>
@@ -695,6 +806,9 @@
     <t>محلول رينجر</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>معجون اسنان فلورو بالكولا</t>
   </si>
   <si>
@@ -704,19 +818,13 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 9:46 PM</t>
+    <t>Thursday, 17 July, 2025 11:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,7 +1597,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1499,14 +1607,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1515,14 +1623,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1532,14 +1640,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1548,14 +1656,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1565,14 +1673,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1581,14 +1689,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1598,14 +1706,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1614,14 +1722,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1631,14 +1739,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1647,14 +1755,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1664,14 +1772,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1680,14 +1788,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1697,11 +1805,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1713,14 +1821,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1730,14 +1838,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1746,7 +1854,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1763,14 +1871,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1779,14 +1887,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1796,14 +1904,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1819,7 +1927,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1829,14 +1937,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1845,7 +1953,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1862,11 +1970,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1878,7 +1986,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1895,14 +2003,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1911,14 +2019,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1928,14 +2036,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1944,14 +2052,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1961,14 +2069,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1977,14 +2085,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1994,11 +2102,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>20</v>
@@ -2010,14 +2118,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2027,11 +2135,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>20</v>
@@ -2043,14 +2151,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2060,14 +2168,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2076,7 +2184,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2093,14 +2201,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2109,14 +2217,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2126,11 +2234,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>20</v>
@@ -2142,14 +2250,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2159,14 +2267,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2175,14 +2283,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2192,14 +2300,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2208,14 +2316,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2225,14 +2333,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2241,14 +2349,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2258,14 +2366,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2274,14 +2382,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2291,14 +2399,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2307,14 +2415,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2324,11 +2432,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2340,14 +2448,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2357,11 +2465,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2373,14 +2481,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>12</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2390,14 +2498,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2406,14 +2514,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2423,14 +2531,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2439,14 +2547,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2456,14 +2564,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2472,14 +2580,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2489,11 +2597,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2505,14 +2613,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2522,14 +2630,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2538,14 +2646,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2555,14 +2663,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2571,14 +2679,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2588,11 +2696,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2604,14 +2712,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2621,14 +2729,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2637,14 +2745,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2654,14 +2762,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2670,14 +2778,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2687,11 +2795,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2703,7 +2811,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2720,14 +2828,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2736,14 +2844,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2753,14 +2861,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2769,14 +2877,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2786,11 +2894,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2802,7 +2910,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2819,14 +2927,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2835,14 +2943,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2852,11 +2960,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>20</v>
@@ -2868,14 +2976,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2885,14 +2993,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>69</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2901,14 +3009,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2918,14 +3026,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2934,14 +3042,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2951,14 +3059,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2967,14 +3075,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2984,14 +3092,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3000,14 +3108,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3017,14 +3125,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3033,14 +3141,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3050,14 +3158,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3066,14 +3174,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3083,14 +3191,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3099,14 +3207,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3116,11 +3224,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>20</v>
@@ -3132,14 +3240,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3149,11 +3257,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3165,28 +3273,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>181</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>20</v>
@@ -3198,14 +3306,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3215,14 +3323,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3231,14 +3339,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3248,14 +3356,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3264,14 +3372,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3281,14 +3389,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>189</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3304,7 +3412,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3314,11 +3422,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>20</v>
@@ -3330,14 +3438,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3347,14 +3455,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3363,28 +3471,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>140</v>
+        <v>196</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3396,31 +3504,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3429,20 +3537,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3450,10 +3558,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3462,7 +3570,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3475,18 +3583,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3495,31 +3603,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>105</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3528,28 +3636,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3561,28 +3669,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3594,31 +3702,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3627,31 +3735,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>213</v>
+        <v>89</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>198</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3660,31 +3768,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>44</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3693,31 +3801,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>179</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3726,28 +3834,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>152</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>222</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3759,28 +3867,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3792,31 +3900,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3825,31 +3933,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>186</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>158</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3858,28 +3966,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3891,31 +3999,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -3924,28 +4032,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -3957,66 +4065,528 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>248</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" ht="25.5" customHeight="1">
-      <c r="P87" s="13">
-        <v>4373.8850000000002</v>
-      </c>
-      <c r="Q87" s="13"/>
-    </row>
-    <row r="88" ht="16.5" customHeight="1">
-      <c t="s" r="A88" s="14">
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>199</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>64</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>249</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>12</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>199</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>226</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>251</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>12</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>199</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>243</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>253</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>254</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>199</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
         <v>235</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c t="s" r="G88" s="15">
-        <v>236</v>
-      </c>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-      <c r="J88" s="16"/>
-      <c t="s" r="K88" s="17">
-        <v>237</v>
-      </c>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>255</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>256</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>12</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>199</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>257</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>258</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>259</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>212</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>199</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>240</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>260</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>16</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>199</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>261</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>12</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>199</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>235</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>264</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>212</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>199</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>175</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>265</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>46</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>199</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>175</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>266</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>16</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>199</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>231</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>267</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>268</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>199</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>240</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>241</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>269</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>254</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>199</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>152</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>270</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>212</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>199</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>152</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5319.0749999999998</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>271</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>272</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>273</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="412">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4425,10 +4995,80 @@
     <mergeCell ref="H86:K86"/>
     <mergeCell ref="L86:M86"/>
     <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="G88:I88"/>
-    <mergeCell ref="K88:Q88"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -596,6 +596,15 @@
     <t>45.0450</t>
   </si>
   <si>
+    <t>TARGOMASH 80MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>24.7500</t>
+  </si>
+  <si>
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
@@ -677,10 +686,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>7:2</t>
-  </si>
-  <si>
-    <t>33.6600</t>
+    <t>7:1</t>
+  </si>
+  <si>
+    <t>50.4900</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -761,7 +770,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -773,9 +785,6 @@
     <t xml:space="preserve">سكاته حصيره </t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>15.0000</t>
   </si>
   <si>
@@ -824,7 +833,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:08 PM</t>
+    <t>Thursday, 17 July, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3478,7 +3487,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3495,7 +3504,7 @@
         <v>197</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3511,24 +3520,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>178</v>
+        <v>63</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3537,20 +3546,20 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3561,7 +3570,7 @@
         <v>204</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3577,7 +3586,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3627,7 +3636,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3643,7 +3652,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3669,14 +3678,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>12</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3686,11 +3695,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>76</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3709,7 +3718,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3719,14 +3728,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>80</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3735,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>219</v>
+        <v>63</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3752,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>220</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3785,7 +3794,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3818,14 +3827,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>22</v>
+        <v>143</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3834,31 +3843,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3867,28 +3876,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3900,31 +3909,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3940,21 +3949,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>22</v>
@@ -3966,31 +3975,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3999,20 +4008,20 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>12</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
@@ -4023,7 +4032,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>245</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4032,31 +4041,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>56</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>248</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4065,28 +4074,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4098,28 +4107,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4131,31 +4140,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>156</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4164,7 +4173,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4177,18 +4186,18 @@
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>46</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4197,31 +4206,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4230,24 +4239,24 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4270,24 +4279,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>57</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4296,31 +4305,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>262</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4336,24 +4345,24 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4362,31 +4371,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>212</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4395,20 +4404,20 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
@@ -4428,28 +4437,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4461,28 +4470,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>268</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4494,28 +4503,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>153</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4527,20 +4536,20 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
@@ -4548,45 +4557,78 @@
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>273</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>215</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>202</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>152</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>87</v>
       </c>
-      <c t="s" r="Q100" s="12">
+      <c t="s" r="Q101" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5319.0749999999998</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>271</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
-        <v>272</v>
-      </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
-        <v>273</v>
-      </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5362.6549999999997</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>274</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>275</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>276</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5065,10 +5107,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:09 PM</t>
+    <t>Thursday, 17 July, 2025 11:11 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -734,6 +734,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -783,9 +792,6 @@
   </si>
   <si>
     <t xml:space="preserve">سكاته حصيره </t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
@@ -4025,11 +4031,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4065,7 +4071,7 @@
         <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>248</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4074,14 +4080,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>56</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>251</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4107,14 +4113,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4124,11 +4130,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4140,14 +4146,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4157,11 +4163,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>65</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4190,14 +4196,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>229</v>
+        <v>64</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>254</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4223,14 +4229,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>46</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4256,14 +4262,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,14 +4278,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4289,11 +4295,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4305,14 +4311,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4322,14 +4328,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4355,14 +4361,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4388,14 +4394,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,14 +4410,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4421,14 +4427,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4487,11 +4493,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4520,11 +4526,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4543,7 +4549,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4553,11 +4559,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>152</v>
+        <v>246</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>153</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4569,14 +4575,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4590,45 +4596,78 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
+        <v>153</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>275</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>215</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>202</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>152</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>87</v>
       </c>
-      <c t="s" r="Q101" s="12">
+      <c t="s" r="Q102" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5362.6549999999997</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>274</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
-        <v>275</v>
-      </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5377.6549999999997</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
         <v>276</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>277</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>278</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5112,10 +5151,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -128,6 +128,21 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>1:6</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CATAFLAM 50 MG 20 SUGAR C.TABS</t>
   </si>
   <si>
@@ -194,9 +209,6 @@
     <t>41.5800</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -227,6 +239,15 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL CHILDREN 12 SUPP</t>
+  </si>
+  <si>
+    <t>58.00</t>
+  </si>
+  <si>
+    <t>29.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -296,9 +317,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>15.8400</t>
-  </si>
-  <si>
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
   </si>
   <si>
@@ -317,6 +335,15 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
@@ -329,6 +356,18 @@
     <t>0:5</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -368,6 +407,12 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>GARAMYCIN 0.1% OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>GLIMEPIRIDE PLUS 4/30 MG 30 SCORED TAB.</t>
   </si>
   <si>
@@ -449,9 +494,6 @@
     <t>MAVILOR 2.5 MG 30 TAB.</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>23.7600</t>
   </si>
   <si>
@@ -506,12 +548,6 @@
     <t>NEVILOB 5 MG 21 TAB</t>
   </si>
   <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
     <t>NEXICURE 40 MG 20 F.C. TABLETS</t>
   </si>
   <si>
@@ -536,12 +572,6 @@
     <t>OTRIVIN 0.1% ADULT NASAL DROPS 15 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -767,9 +797,21 @@
     <t>14:0</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
     <t>حنه جلوري سوده 1 كيس</t>
   </si>
   <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
     <t>زيت دابر املا 90 مل</t>
   </si>
   <si>
@@ -812,9 +854,6 @@
     <t>10.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -839,7 +878,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:11 PM</t>
+    <t>Thursday, 17 July, 2025 11:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1711,7 +1750,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1721,14 +1760,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1737,14 +1776,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1754,14 +1793,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1777,7 +1816,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1787,14 +1826,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1803,14 +1842,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1820,14 +1859,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1836,14 +1875,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1853,11 +1892,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1869,14 +1908,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1886,11 +1925,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1902,7 +1941,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1919,14 +1958,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1935,14 +1974,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1959,7 +1998,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1975,7 +2014,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1985,11 +2024,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -2001,14 +2040,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2018,14 +2057,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2034,14 +2073,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2051,14 +2090,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2067,14 +2106,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2084,14 +2123,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2100,14 +2139,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2124,7 +2163,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2140,7 +2179,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2157,7 +2196,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2173,7 +2212,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2183,14 +2222,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2199,14 +2238,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2216,11 +2255,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>20</v>
@@ -2232,14 +2271,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2249,14 +2288,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2265,14 +2304,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2282,11 +2321,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>20</v>
@@ -2298,14 +2337,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2315,14 +2354,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2331,14 +2370,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2348,11 +2387,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>20</v>
@@ -2371,7 +2410,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2381,14 +2420,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2397,14 +2436,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2414,11 +2453,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>20</v>
@@ -2430,14 +2469,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2447,11 +2486,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2463,14 +2502,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2480,14 +2519,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2520,7 +2559,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2536,7 +2575,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2553,7 +2592,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2569,7 +2608,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2602,7 +2641,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2635,7 +2674,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2645,14 +2684,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2661,14 +2700,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2678,14 +2717,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2701,7 +2740,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2751,7 +2790,7 @@
         <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2767,7 +2806,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>141</v>
+        <v>12</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2777,14 +2816,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>143</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2793,14 +2832,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2810,11 +2849,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2826,7 +2865,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2843,11 +2882,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>20</v>
@@ -2859,14 +2898,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2876,11 +2915,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2892,14 +2931,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2909,14 +2948,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2925,14 +2964,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2942,14 +2981,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2958,14 +2997,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2975,14 +3014,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2991,14 +3030,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3008,14 +3047,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3024,14 +3063,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3041,14 +3080,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3057,14 +3096,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3074,11 +3113,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3090,14 +3129,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3107,14 +3146,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3123,14 +3162,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3140,14 +3179,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>68</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3156,14 +3195,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3173,14 +3212,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3196,7 +3235,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3206,14 +3245,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3222,14 +3261,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3239,14 +3278,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3255,14 +3294,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3272,14 +3311,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3288,7 +3327,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3305,14 +3344,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3328,7 +3367,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3338,14 +3377,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3361,7 +3400,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3371,14 +3410,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3387,14 +3426,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3408,7 +3447,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>20</v>
@@ -3427,7 +3466,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3437,14 +3476,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3453,14 +3492,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3470,11 +3509,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>194</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>20</v>
@@ -3486,14 +3525,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>195</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3503,11 +3542,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>20</v>
@@ -3519,14 +3558,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>63</v>
+        <v>188</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3536,14 +3575,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3552,28 +3591,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>204</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>20</v>
@@ -3585,14 +3624,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3602,14 +3641,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3618,14 +3657,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3635,14 +3674,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3651,7 +3690,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3668,11 +3707,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>20</v>
@@ -3684,14 +3723,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3701,11 +3740,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3717,31 +3756,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>212</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3750,14 +3789,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3767,14 +3806,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>80</v>
+        <v>216</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3783,14 +3822,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3800,14 +3839,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>89</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3816,14 +3855,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3833,14 +3872,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>143</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3849,14 +3888,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3866,14 +3905,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>229</v>
+        <v>83</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3882,28 +3921,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>152</v>
+        <v>227</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3915,31 +3954,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>233</v>
+        <v>67</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>234</v>
+        <v>87</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3948,31 +3987,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3981,31 +4020,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>22</v>
+        <v>235</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>234</v>
+        <v>90</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4014,31 +4053,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>202</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4047,28 +4086,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4080,31 +4119,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4113,31 +4152,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>57</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4146,31 +4185,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>181</v>
+        <v>244</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4179,28 +4218,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>65</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4212,31 +4251,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>257</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4258,18 +4297,18 @@
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>46</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4278,31 +4317,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4311,28 +4350,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>263</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4344,31 +4383,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4377,7 +4416,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4390,15 +4429,15 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>266</v>
+        <v>191</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4417,24 +4456,24 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>235</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4450,24 +4489,24 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>175</v>
+        <v>239</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>176</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4476,31 +4515,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4509,28 +4548,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>271</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4542,28 +4581,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>273</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4575,31 +4614,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4608,66 +4647,297 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5377.6549999999997</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>276</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>277</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>278</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>281</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>12</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>212</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>248</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>282</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>225</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>212</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>117</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>283</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>51</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>212</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>117</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>284</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>16</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>212</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>244</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>245</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>285</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>286</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>212</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>256</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>257</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>287</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>271</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>212</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>166</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>288</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>225</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>212</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>166</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5617.2449999999999</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
+        <v>289</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
+        <v>290</v>
+      </c>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>291</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5156,10 +5426,45 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -878,7 +878,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:23 PM</t>
+    <t>Thursday, 17 July, 2025 11:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -635,6 +635,15 @@
     <t>24.7500</t>
   </si>
   <si>
+    <t>TAVACIN 750MG 5 TAB</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>TEGRETOL 200MG 30 TAB.</t>
   </si>
   <si>
@@ -878,7 +887,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:36 PM</t>
+    <t>Thursday, 17 July, 2025 11:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3730,7 +3739,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3763,24 +3772,24 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>188</v>
+        <v>67</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3789,20 +3798,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>215</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3813,7 +3822,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3829,7 +3838,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3879,7 +3888,7 @@
         <v>223</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3895,7 +3904,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3905,14 +3914,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3921,14 +3930,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3938,11 +3947,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3961,7 +3970,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3971,14 +3980,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>87</v>
+        <v>230</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3987,14 +3996,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>232</v>
+        <v>67</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4004,14 +4013,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
         <v>233</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4037,14 +4046,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>158</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4070,14 +4079,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>22</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4086,31 +4095,31 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>241</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>212</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>166</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>167</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4119,28 +4128,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4152,31 +4161,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4192,21 +4201,21 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>250</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>22</v>
@@ -4218,31 +4227,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4264,15 +4273,15 @@
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4284,20 +4293,20 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>12</v>
+        <v>258</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
@@ -4308,7 +4317,7 @@
         <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4317,31 +4326,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>207</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>43</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4357,24 +4366,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>56</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>62</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4383,28 +4392,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>253</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4416,28 +4425,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4449,28 +4458,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>69</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4482,31 +4491,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>239</v>
+        <v>68</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>270</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>271</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4528,18 +4537,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>273</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>51</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4548,31 +4557,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>271</v>
+        <v>12</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4581,28 +4590,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4621,24 +4630,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4647,28 +4656,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>22</v>
@@ -4680,7 +4689,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4693,15 +4702,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>22</v>
@@ -4713,31 +4722,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>117</v>
+        <v>251</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4746,20 +4755,20 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>51</v>
+        <v>228</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
@@ -4779,28 +4788,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>244</v>
+        <v>117</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>245</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4812,28 +4821,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4845,28 +4854,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>167</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4878,20 +4887,20 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
@@ -4899,45 +4908,78 @@
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
+        <v>167</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>291</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>228</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>215</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>166</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>94</v>
       </c>
-      <c t="s" r="Q109" s="12">
+      <c t="s" r="Q110" s="12">
         <v>22</v>
       </c>
     </row>
-    <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5617.2449999999999</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>289</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
-        <v>290</v>
-      </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
-        <v>291</v>
-      </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5713.2449999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>292</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>293</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>294</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5461,10 +5503,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -887,7 +887,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:39 PM</t>
+    <t>Thursday, 17 July, 2025 11:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -830,19 +830,19 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته حصيره </t>
   </si>
   <si>
     <t>13:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سكاته حصيره </t>
   </si>
   <si>
     <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
@@ -4545,10 +4545,10 @@
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
+        <v>164</v>
+      </c>
+      <c t="s" r="Q98" s="12">
         <v>273</v>
-      </c>
-      <c t="s" r="Q98" s="12">
-        <v>274</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4578,7 +4578,7 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>51</v>
@@ -4590,14 +4590,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4894,7 +4894,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="111" ht="25.5" customHeight="1">
       <c r="P111" s="13">
-        <v>5713.2449999999999</v>
+        <v>5743.2449999999999</v>
       </c>
       <c r="Q111" s="13"/>
     </row>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -62,6 +62,21 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -71,9 +86,6 @@
     <t>12.5000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
@@ -314,7 +326,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:0</t>
+    <t>7:2</t>
+  </si>
+  <si>
+    <t>31.6800</t>
   </si>
   <si>
     <t>ECTOMETHRIN 5% LOTION 50 ML</t>
@@ -596,9 +611,6 @@
     <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>SPASMOFREE 5MG/2ML I.V./I.M. 3 AMP.</t>
   </si>
   <si>
@@ -689,7 +701,7 @@
     <t>28.00</t>
   </si>
   <si>
-    <t>14.0000</t>
+    <t>28.0000</t>
   </si>
   <si>
     <t>URIVIN-N 10 EFF. SACHETS</t>
@@ -887,7 +899,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:42 PM</t>
+    <t>Thursday, 17 July, 2025 11:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1561,7 +1573,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1571,14 +1583,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1587,14 +1599,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1611,7 +1623,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1644,7 +1656,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1653,14 +1665,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1677,7 +1689,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1686,14 +1698,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1703,11 +1715,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1719,14 +1731,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1736,14 +1748,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1752,14 +1764,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1776,7 +1788,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1785,14 +1797,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1809,7 +1821,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1818,14 +1830,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1842,7 +1854,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1851,14 +1863,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1875,7 +1887,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1884,14 +1896,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1908,7 +1920,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1924,7 +1936,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1934,11 +1946,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1950,14 +1962,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1967,11 +1979,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2000,14 +2012,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2040,7 +2052,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2056,7 +2068,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2066,11 +2078,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2082,14 +2094,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2099,14 +2111,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2181,14 +2193,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2198,11 +2210,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2214,14 +2226,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2238,7 +2250,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2254,7 +2266,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2297,14 +2309,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2313,14 +2325,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2330,14 +2342,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2346,14 +2358,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2363,14 +2375,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2412,14 +2424,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2429,14 +2441,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2445,14 +2457,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2462,14 +2474,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2511,14 +2523,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2528,14 +2540,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2544,14 +2556,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2594,14 +2606,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2660,11 +2672,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2693,14 +2705,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2709,14 +2721,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2742,7 +2754,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2763,7 +2775,7 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2792,11 +2804,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2808,7 +2820,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2825,11 +2837,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2841,14 +2853,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2858,11 +2870,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2874,7 +2886,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2891,14 +2903,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2907,14 +2919,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2924,14 +2936,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2940,14 +2952,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2957,14 +2969,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2973,14 +2985,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2990,14 +3002,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>158</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3006,14 +3018,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3023,14 +3035,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>61</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>163</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3039,14 +3051,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3056,14 +3068,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3072,14 +3084,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3089,14 +3101,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>45</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3105,14 +3117,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3122,11 +3134,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3138,14 +3150,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3155,14 +3167,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3171,14 +3183,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3188,14 +3200,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3204,14 +3216,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3221,14 +3233,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>72</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3237,14 +3249,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3254,14 +3266,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3270,14 +3282,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3336,14 +3348,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3353,14 +3365,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3369,7 +3381,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3386,14 +3398,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3452,14 +3464,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>189</v>
+        <v>122</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3468,14 +3480,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>192</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>53</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>54</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3534,14 +3546,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3551,14 +3563,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3567,14 +3579,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3600,14 +3612,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3617,14 +3629,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>199</v>
+        <v>38</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>65</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3650,14 +3662,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>201</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3666,14 +3678,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>188</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3683,14 +3695,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>203</v>
+        <v>140</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3716,14 +3728,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3765,14 +3777,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3782,11 +3794,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3798,20 +3810,20 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>188</v>
+        <v>71</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3822,7 +3834,7 @@
         <v>217</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3838,24 +3850,24 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3864,14 +3876,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3881,11 +3893,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3897,14 +3909,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3914,14 +3926,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>228</v>
+        <v>71</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3947,11 +3959,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>84</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3963,14 +3975,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3980,11 +3992,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>231</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4013,14 +4025,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>87</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4029,14 +4041,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>235</v>
+        <v>71</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4046,14 +4058,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4079,14 +4091,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>158</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4112,14 +4124,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>94</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>22</v>
+        <v>163</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4135,24 +4147,24 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4161,28 +4173,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>246</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>171</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4207,7 +4219,7 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
@@ -4215,10 +4227,10 @@
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4227,31 +4239,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>254</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4260,20 +4272,20 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>255</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
@@ -4281,10 +4293,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4293,24 +4305,24 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4333,24 +4345,24 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>12</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>264</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4366,24 +4378,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>12</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>207</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>43</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4392,31 +4404,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>56</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>62</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4425,28 +4437,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4458,28 +4470,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>191</v>
+        <v>255</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>192</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4491,28 +4503,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4524,31 +4536,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4557,7 +4569,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4570,18 +4582,18 @@
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>275</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>51</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4590,31 +4602,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4623,28 +4635,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4656,31 +4668,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4689,31 +4701,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>12</v>
+        <v>232</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>260</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4722,7 +4734,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4735,18 +4747,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4755,31 +4767,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>117</v>
+        <v>255</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4788,28 +4800,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4821,28 +4833,28 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>247</v>
+        <v>122</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4854,28 +4866,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4887,28 +4899,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>166</v>
+        <v>263</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4920,66 +4932,99 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>228</v>
+        <v>281</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>94</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5743.2449999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>292</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
-        <v>293</v>
-      </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
-        <v>294</v>
-      </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>295</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>232</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>219</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>171</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="P112" s="13">
+        <v>5801.7950000000001</v>
+      </c>
+      <c r="Q112" s="13"/>
+    </row>
+    <row r="113" ht="16.5" customHeight="1">
+      <c t="s" r="A113" s="14">
+        <v>296</v>
+      </c>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c t="s" r="G113" s="15">
+        <v>297</v>
+      </c>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c t="s" r="K113" s="17">
+        <v>298</v>
+      </c>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="537">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5508,10 +5553,15 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="P112:Q112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="K113:Q113"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -140,6 +140,15 @@
     <t>30.6900</t>
   </si>
   <si>
+    <t>CARELYTE 2.4/2.5GM GRANULES 280 MG</t>
+  </si>
+  <si>
+    <t>239.00</t>
+  </si>
+  <si>
+    <t>239.0000</t>
+  </si>
+  <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
   </si>
   <si>
@@ -164,6 +173,21 @@
     <t>86.0000</t>
   </si>
   <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>219.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>CEFOTAX 1GM I.M./I.V. VIAL - EIPICO</t>
   </si>
   <si>
@@ -176,9 +200,6 @@
     <t>129.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>CETAFEN 30 TABS</t>
   </si>
   <si>
@@ -761,9 +782,6 @@
     <t xml:space="preserve">برفان القصاص </t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>30.00</t>
   </si>
   <si>
@@ -797,84 +815,84 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>98:0</t>
+    <t>99:0</t>
   </si>
   <si>
     <t>20.00</t>
   </si>
   <si>
+    <t>حبايه</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>225.00</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>رباط ضغط 6سم</t>
+  </si>
+  <si>
+    <t>زيت دابر املا 90 مل</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سباركل شامبو وبلسم </t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>28:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>9.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سكاته حصيره </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>80.0000</t>
+  </si>
+  <si>
+    <t>صابون CAMAY</t>
+  </si>
+  <si>
+    <t>قطن 50جم</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>حبايه</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>14:0</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن</t>
-  </si>
-  <si>
-    <t>1:16</t>
-  </si>
-  <si>
-    <t>225.00</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>رباط ضغط 6سم</t>
-  </si>
-  <si>
-    <t>زيت دابر املا 90 مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سباركل شامبو وبلسم </t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>28:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>9.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">سكاته حصيره </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شامبو SUNSILK  ك 350 مل</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>80.0000</t>
-  </si>
-  <si>
-    <t>صابون CAMAY</t>
-  </si>
-  <si>
-    <t>قطن 50جم</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -899,7 +917,7 @@
     <t>مناديل FINE</t>
   </si>
   <si>
-    <t>Thursday, 17 July, 2025 11:45 PM</t>
+    <t>Thursday, 17 July, 2025 11:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1822,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1814,14 +1832,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1830,14 +1848,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1847,14 +1865,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>50</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1870,7 +1888,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1880,14 +1898,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1896,14 +1914,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1913,14 +1931,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1953,7 +1971,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1969,7 +1987,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1979,14 +1997,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1995,14 +2013,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2012,11 +2030,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2028,14 +2046,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2045,14 +2063,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2061,14 +2079,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2101,7 +2119,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2118,7 +2136,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2134,7 +2152,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2144,14 +2162,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2160,14 +2178,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2177,14 +2195,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2193,14 +2211,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2210,14 +2228,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2226,14 +2244,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2243,14 +2261,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2259,14 +2277,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2283,7 +2301,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2299,7 +2317,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2316,7 +2334,7 @@
         <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2332,7 +2350,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2342,14 +2360,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2358,14 +2376,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2375,11 +2393,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2391,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2474,14 +2492,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2490,14 +2508,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2507,14 +2525,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2523,14 +2541,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2540,11 +2558,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2573,14 +2591,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2606,11 +2624,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q40" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q40" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2672,11 +2690,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2688,14 +2706,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2745,7 +2763,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2761,7 +2779,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2771,11 +2789,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2787,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2804,14 +2822,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2820,7 +2838,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2837,11 +2855,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2853,7 +2871,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2870,11 +2888,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2886,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2903,11 +2921,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2919,14 +2937,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2969,11 +2987,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2985,14 +3003,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3002,14 +3020,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3018,14 +3036,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>163</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3068,14 +3086,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>66</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3101,14 +3119,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3134,11 +3152,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>72</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3150,7 +3168,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3167,14 +3185,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3183,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3216,14 +3234,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3249,7 +3267,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3266,14 +3284,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3282,14 +3300,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3332,11 +3350,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3348,14 +3366,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3365,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3398,11 +3416,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3414,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3431,14 +3449,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3464,11 +3482,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3497,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>62</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3530,11 +3548,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3563,11 +3581,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3629,11 +3647,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>21</v>
@@ -3645,7 +3663,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3662,11 +3680,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>21</v>
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3695,11 +3713,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>21</v>
@@ -3711,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3728,11 +3746,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>21</v>
@@ -3744,14 +3762,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3761,11 +3779,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>210</v>
+        <v>147</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>21</v>
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3827,14 +3845,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3843,20 +3861,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3867,7 +3885,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3883,7 +3901,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3916,24 +3934,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>226</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3959,11 +3977,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3992,11 +4010,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>87</v>
+        <v>233</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4008,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4025,11 +4043,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>71</v>
+        <v>239</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4058,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>237</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4074,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>239</v>
+        <v>12</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4091,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4107,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>242</v>
+        <v>78</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4124,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4157,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4180,24 +4198,24 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4206,31 +4224,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4239,31 +4257,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>178</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4279,24 +4297,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4305,31 +4323,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4338,31 +4356,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4371,31 +4389,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>268</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4404,31 +4422,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>211</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4437,31 +4455,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>65</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>66</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4470,31 +4488,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>55</v>
+        <v>275</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4503,28 +4521,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>196</v>
+        <v>72</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4536,28 +4554,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4569,31 +4587,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>277</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4602,31 +4620,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>266</v>
+        <v>79</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4635,31 +4653,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4668,7 +4686,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4681,18 +4699,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
         <v>284</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4708,24 +4726,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>232</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4734,7 +4752,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4747,18 +4765,18 @@
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4767,28 +4785,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>252</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>26</v>
@@ -4800,31 +4818,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>123</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4833,31 +4851,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>123</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4866,28 +4884,28 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>252</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4899,28 +4917,28 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>293</v>
+        <v>58</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>263</v>
+        <v>129</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>264</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4932,28 +4950,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>281</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4965,66 +4983,132 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>98</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>300</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>286</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>226</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>178</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>301</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>239</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>226</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>178</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>26</v>
       </c>
     </row>
-    <row r="112" ht="25.5" customHeight="1">
-      <c r="P112" s="13">
-        <v>5801.7950000000001</v>
-      </c>
-      <c r="Q112" s="13"/>
-    </row>
-    <row r="113" ht="16.5" customHeight="1">
-      <c t="s" r="A113" s="14">
-        <v>296</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c t="s" r="G113" s="15">
-        <v>297</v>
-      </c>
-      <c r="H113" s="15"/>
-      <c r="I113" s="15"/>
-      <c r="J113" s="16"/>
-      <c t="s" r="K113" s="17">
-        <v>298</v>
-      </c>
-      <c r="L113" s="17"/>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="17"/>
-      <c r="P113" s="17"/>
-      <c r="Q113" s="17"/>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>6279.7950000000001</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>302</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>303</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>304</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="537">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5558,10 +5642,20 @@
     <mergeCell ref="H111:K111"/>
     <mergeCell ref="L111:M111"/>
     <mergeCell ref="N111:O111"/>
-    <mergeCell ref="P112:Q112"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="G113:I113"/>
-    <mergeCell ref="K113:Q113"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 12:05 AM</t>
+    <t>Friday, 18 July, 2025 12:19 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 12:19 AM</t>
+    <t>Friday, 18 July, 2025 12:20 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-07-17_00-00.xlsx
+++ b/DaySale_2025-07-17_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 18 July, 2025 12:20 AM</t>
+    <t>Friday, 18 July, 2025 12:33 AM</t>
   </si>
   <si>
     <t>1/1</t>
